--- a/COVID19Data/Singapore.xlsx
+++ b/COVID19Data/Singapore.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\songyk\EpiEstim3\COVID19\COVID19Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\songyk\EpiEstim3\COVID19\COVID19Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743A36BD-6658-476E-A653-07F3ED58C0E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15030" windowHeight="6570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15030" windowHeight="6570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -130,7 +131,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -143,6 +144,7 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -510,11 +512,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2522,6 +2524,546 @@
         <v>799</v>
       </c>
     </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A101">
+        <v>20200428</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>528</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A102">
+        <v>20200429</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>690</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A103">
+        <v>20200430</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>528</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A104">
+        <v>20200501</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>932</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A105">
+        <v>20200502</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>447</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A106">
+        <v>20200503</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>657</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A107">
+        <v>20200504</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>573</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A108">
+        <v>20200505</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>632</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A109">
+        <v>20200506</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>788</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A110">
+        <v>20200507</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>741</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A111">
+        <v>20200508</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>768</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A112">
+        <v>20200509</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>753</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A113">
+        <v>20200510</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>876</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A114">
+        <v>20200511</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>486</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A115">
+        <v>20200512</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>884</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A116">
+        <v>20200513</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>675</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A117">
+        <v>20200514</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>752</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A118">
+        <v>20200515</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>793</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A119">
+        <v>20200516</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>465</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A120">
+        <v>20200517</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>682</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A121">
+        <v>20200518</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>305</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A122">
+        <v>20200519</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>451</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A123">
+        <v>20200520</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>570</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A124">
+        <v>20200521</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>448</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A125">
+        <v>20200522</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>614</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A126">
+        <v>20200523</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>642</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A127">
+        <v>20200524</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <v>548</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>548</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
